--- a/biology/Botanique/Schismatoglottis_prietoi/Schismatoglottis_prietoi.xlsx
+++ b/biology/Botanique/Schismatoglottis_prietoi/Schismatoglottis_prietoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Schismatoglottis de Prieto (Schismatoglottis prietoi) est une espèce de plantes aquatiques du genre Schismatoglottis originaire des Philippines. Elle a été découverte pour la première fois à l'île de Cebu en 2013 par le collectionneur de plantes Esquerion Prieto et fut décrite en 2015.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Schismatoglottis prietoi n'est à ce jour connu que dans deux localités distantes d'environ 300 km sur l'île de Cebu au sud et au nord sur l'île de Luçon au Philippines.
 On la trouve dans des rivières d'eau douce à débit rapide et peu profondes aux abords des forêts humides de plaine.
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Schismatoglottis prietoi se développe en formant des grands peuplements dans les lits des rivières sablonneuses et graveleuses. Elle est maintenue par de minces rhizomes rampants et des stolons, comparables aux espèces de Cryptocorynes, mais plus denses. Elle est jusqu'à présent la seule espèce de Schismatoglottis qui est véritablement aquatique dans la nature.
 La plante ne dépasse pas les 15 cm de auteur. Ses petites feuilles elliptiques et brillantes sont semblable à celles des Anubias nana mais sont d'un vert plus clair.
